--- a/data/jadwal.xlsx
+++ b/data/jadwal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="149">
   <si>
     <t>title</t>
   </si>
@@ -38,6 +38,9 @@
     <t>2026-01-26 00:00</t>
   </si>
   <si>
+    <t>2026-01-26 24:00</t>
+  </si>
+  <si>
     <t>Internal CAN</t>
   </si>
   <si>
@@ -47,12 +50,15 @@
     <t>Tim CAN</t>
   </si>
   <si>
-    <t>2026-01-27 00:00</t>
-  </si>
-  <si>
     <t>Doa Pagi</t>
   </si>
   <si>
+    <t>2026-01-27 07:30</t>
+  </si>
+  <si>
+    <t>2026-01-27 08:00</t>
+  </si>
+  <si>
     <t>Doa Pagi Rutinan</t>
   </si>
   <si>
@@ -69,6 +75,24 @@
   </si>
   <si>
     <t>deadline |</t>
+  </si>
+  <si>
+    <t>Rofi Robbani</t>
+  </si>
+  <si>
+    <t>2026-01-27 07:45</t>
+  </si>
+  <si>
+    <t>2026-01-27 08:30</t>
+  </si>
+  <si>
+    <t>Nurmy</t>
+  </si>
+  <si>
+    <t>2026-01-26 07:00</t>
+  </si>
+  <si>
+    <t>2026-01-26 08:00</t>
   </si>
   <si>
     <t>Type</t>
@@ -441,9 +465,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;d&quot; &quot;hh&quot;:&quot;mm"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -472,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -483,9 +506,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -715,6 +735,7 @@
     <col customWidth="1" min="2" max="2" width="19.25"/>
     <col customWidth="1" min="3" max="3" width="20.38"/>
     <col customWidth="1" min="4" max="4" width="21.25"/>
+    <col customWidth="1" min="5" max="5" width="21.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -745,68 +766,182 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="N3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P3" s="3">
         <v>46063.0</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="P4" s="3">
+        <v>46063.0</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46063.0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46063.0</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D6">
       <formula1>Sheet2!$B$2:$B1000</formula1>
     </dataValidation>
   </dataValidations>
@@ -829,63 +964,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>3.40012842E8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1">
         <v>3.40016137E8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>3.40016544E8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -894,119 +1029,119 @@
         <v>3.40015139E8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <v>3.40017018E8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>3.40014303E8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>3.40014444E8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>3.40017056E8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1">
         <v>3.40013473E8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
         <v>3.40019265E8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1">
         <v>3.40017065E8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
         <v>3.40050195E8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -1014,7 +1149,7 @@
         <v>3.40016051E8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -1022,7 +1157,7 @@
         <v>3.40017401E8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -1030,7 +1165,7 @@
         <v>3.40019267E8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -1038,7 +1173,7 @@
         <v>3.40016866E8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -1046,7 +1181,7 @@
         <v>3.40055933E8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -1054,7 +1189,7 @@
         <v>3.40057173E8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -1062,7 +1197,7 @@
         <v>3.40017711E8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -1070,7 +1205,7 @@
         <v>3.40053294E8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -1078,7 +1213,7 @@
         <v>3.40020172E8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -1086,7 +1221,7 @@
         <v>3.40054217E8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -1094,7 +1229,7 @@
         <v>3.40053292E8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -1102,7 +1237,7 @@
         <v>3.40054218E8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
@@ -1110,7 +1245,7 @@
         <v>3.40050125E8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -1118,7 +1253,7 @@
         <v>3.40014027E8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -1126,7 +1261,7 @@
         <v>3.40050272E8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -1134,7 +1269,7 @@
         <v>3.40016161E8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -1142,7 +1277,7 @@
         <v>3.40012203E8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -1150,7 +1285,7 @@
         <v>3.40019263E8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -1158,7 +1293,7 @@
         <v>3.40020448E8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -1166,7 +1301,7 @@
         <v>3.40017714E8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -1174,7 +1309,7 @@
         <v>3.40016404E8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -1182,7 +1317,7 @@
         <v>3.40055838E8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
@@ -1190,7 +1325,7 @@
         <v>3.40056543E8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
@@ -1198,7 +1333,7 @@
         <v>3.40052171E8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -1206,7 +1341,7 @@
         <v>3.40055731E8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
@@ -1214,7 +1349,7 @@
         <v>3.40055183E8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
@@ -1222,7 +1357,7 @@
         <v>3.40018186E8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -1230,7 +1365,7 @@
         <v>3.40057313E8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
@@ -1238,7 +1373,7 @@
         <v>3.40058624E8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43">
@@ -1246,7 +1381,7 @@
         <v>3.40056747E8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44">
@@ -1254,7 +1389,7 @@
         <v>3.40057726E8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45">
@@ -1262,7 +1397,7 @@
         <v>3.40012575E8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -1270,7 +1405,7 @@
         <v>3.40057928E8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47">
@@ -1278,7 +1413,7 @@
         <v>3.40017228E8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48">
@@ -1286,7 +1421,7 @@
         <v>3.40057608E8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
@@ -1294,7 +1429,7 @@
         <v>3.40058765E8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -1302,7 +1437,7 @@
         <v>3.40058817E8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
@@ -1310,7 +1445,7 @@
         <v>3.4005517E8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
@@ -1318,7 +1453,7 @@
         <v>3.40020473E8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
@@ -1326,7 +1461,7 @@
         <v>3.40058948E8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
@@ -1334,7 +1469,7 @@
         <v>3.40057494E8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
@@ -1342,7 +1477,7 @@
         <v>3.40058106E8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
@@ -1350,7 +1485,7 @@
         <v>3.40057584E8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57">
@@ -1358,7 +1493,7 @@
         <v>3.40058202E8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
@@ -1366,7 +1501,7 @@
         <v>3.4005922E8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59">
@@ -1374,7 +1509,7 @@
         <v>3.40057725E8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
@@ -1382,7 +1517,7 @@
         <v>3.40059471E8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61">
@@ -1390,7 +1525,7 @@
         <v>3.40018187E8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62">
@@ -1398,7 +1533,7 @@
         <v>3.400203E8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63">
@@ -1406,7 +1541,7 @@
         <v>3.40055178E8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64">
@@ -1414,7 +1549,7 @@
         <v>3.40061384E8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65">
@@ -1422,7 +1557,7 @@
         <v>3.40063283E8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
@@ -1430,7 +1565,7 @@
         <v>3.40059722E8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67">
@@ -1438,7 +1573,7 @@
         <v>3.40060691E8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68">
@@ -1446,7 +1581,7 @@
         <v>3.40060467E8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69">
@@ -1454,7 +1589,7 @@
         <v>3.40017718E8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
@@ -1462,7 +1597,7 @@
         <v>3.40059373E8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71">
@@ -1470,7 +1605,7 @@
         <v>3.40062283E8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72">
@@ -1478,7 +1613,7 @@
         <v>3.4001968E8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73">
@@ -1486,7 +1621,7 @@
         <v>3.4006287E8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74">
@@ -1494,7 +1629,7 @@
         <v>3.40061096E8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75">
@@ -1502,7 +1637,7 @@
         <v>3.40056628E8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76">
@@ -1510,7 +1645,7 @@
         <v>3.40019393E8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77">
@@ -1518,7 +1653,7 @@
         <v>3.40055753E8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78">
@@ -1526,7 +1661,7 @@
         <v>3.40015173E8</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79">
@@ -1534,7 +1669,7 @@
         <v>3.40020298E8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
@@ -1542,7 +1677,7 @@
         <v>3.40059598E8</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
@@ -1550,7 +1685,7 @@
         <v>3.40055846E8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82">
@@ -1558,7 +1693,7 @@
         <v>3.40050061E8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83">
@@ -1566,7 +1701,7 @@
         <v>3.40063932E8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84">
@@ -1574,7 +1709,7 @@
         <v>3.40063875E8</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85">
@@ -1582,7 +1717,7 @@
         <v>3.40063705E8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86">
@@ -1590,7 +1725,7 @@
         <v>3.40063677E8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87">
@@ -1598,7 +1733,7 @@
         <v>3.4005701E8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88">
@@ -1606,7 +1741,7 @@
         <v>3.40064443E8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89">
@@ -1614,7 +1749,7 @@
         <v>3.40064775E8</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90">
@@ -1622,7 +1757,7 @@
         <v>3.40064938E8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91">
@@ -1630,7 +1765,7 @@
         <v>3.40065038E8</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92">
@@ -1638,7 +1773,7 @@
         <v>3.40065052E8</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
@@ -1646,7 +1781,7 @@
         <v>3.40065239E8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
@@ -1654,7 +1789,7 @@
         <v>3.40065254E8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
@@ -1662,7 +1797,7 @@
         <v>3.40065276E8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96">
@@ -1670,7 +1805,7 @@
         <v>3.40065584E8</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
@@ -1678,7 +1813,7 @@
         <v>3.400656E8</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
@@ -1686,7 +1821,7 @@
         <v>3.40066021E8</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/jadwal.xlsx
+++ b/data/jadwal.xlsx
@@ -1,18 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="21000" windowHeight="9840"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="152">
   <si>
     <t>title</t>
   </si>
@@ -50,51 +66,108 @@
     <t>Tim CAN</t>
   </si>
   <si>
+    <t>Coach Me Programme</t>
+  </si>
+  <si>
+    <t>2026-01-27 07:30</t>
+  </si>
+  <si>
+    <t>2026-01-27 08:00</t>
+  </si>
+  <si>
+    <t>Doa Pagi Rutinan</t>
+  </si>
+  <si>
+    <t>M. Alif Farhan</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Deadline Laporan</t>
+  </si>
+  <si>
+    <t>Kirim ke Email</t>
+  </si>
+  <si>
+    <t>deadline |</t>
+  </si>
+  <si>
+    <t>Knowledge Management System</t>
+  </si>
+  <si>
+    <t>KMS</t>
+  </si>
+  <si>
+    <t>Rofi Robbani</t>
+  </si>
+  <si>
+    <t>Thanks God, It's Monday</t>
+  </si>
+  <si>
+    <t>2026-01-27 07:45</t>
+  </si>
+  <si>
+    <t>2026-01-27 08:30</t>
+  </si>
+  <si>
+    <t>TGIM</t>
+  </si>
+  <si>
+    <t>Nurmy</t>
+  </si>
+  <si>
+    <t>RB Voice</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>I Nyoman Budiana</t>
+  </si>
+  <si>
+    <t>Great Team of The Quarter</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>GTQ</t>
+  </si>
+  <si>
+    <t>Ahmad Sukri</t>
+  </si>
+  <si>
+    <t>BPS Goes To School</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>Taupikurrahman</t>
+  </si>
+  <si>
+    <t>Fabulous Friday</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>Nurul Islamy</t>
+  </si>
+  <si>
+    <t>S3 Reborn</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
+  </si>
+  <si>
+    <t>Herry Irawan</t>
+  </si>
+  <si>
     <t>Doa Pagi</t>
   </si>
   <si>
-    <t>2026-01-27 07:30</t>
-  </si>
-  <si>
-    <t>2026-01-27 08:00</t>
-  </si>
-  <si>
-    <t>Doa Pagi Rutinan</t>
-  </si>
-  <si>
-    <t>M. Alif Farhan</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Deadline Laporan</t>
-  </si>
-  <si>
-    <t>Kirim ke Email</t>
-  </si>
-  <si>
-    <t>deadline |</t>
-  </si>
-  <si>
-    <t>Rofi Robbani</t>
-  </si>
-  <si>
-    <t>2026-01-27 07:45</t>
-  </si>
-  <si>
-    <t>2026-01-27 08:30</t>
-  </si>
-  <si>
-    <t>Nurmy</t>
-  </si>
-  <si>
-    <t>2026-01-26 07:00</t>
-  </si>
-  <si>
-    <t>2026-01-26 08:00</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -110,27 +183,12 @@
     <t>CMP</t>
   </si>
   <si>
-    <t>Coach Me Programme</t>
-  </si>
-  <si>
     <t>Wahyudin</t>
   </si>
   <si>
-    <t>KMS</t>
-  </si>
-  <si>
-    <t>Knowledge Management System</t>
-  </si>
-  <si>
     <t>Akhmad Zammiluny</t>
   </si>
   <si>
-    <t>TGIM</t>
-  </si>
-  <si>
-    <t>Thanks God, It's Monday</t>
-  </si>
-  <si>
     <t>Wini Widiastuti</t>
   </si>
   <si>
@@ -143,9 +201,6 @@
     <t>RV</t>
   </si>
   <si>
-    <t>RB Voice</t>
-  </si>
-  <si>
     <t>Suci Purnamawati</t>
   </si>
   <si>
@@ -167,39 +222,24 @@
     <t>Muhamad Saphoan</t>
   </si>
   <si>
-    <t>GTQ</t>
-  </si>
-  <si>
-    <t>Great Team of The Quarter</t>
-  </si>
-  <si>
     <t>M. Ikhsany Rusyda</t>
   </si>
   <si>
     <t>GTS</t>
   </si>
   <si>
-    <t>BPS Goes To School</t>
-  </si>
-  <si>
     <t>Muhammad Ahyar</t>
   </si>
   <si>
     <t>FF</t>
   </si>
   <si>
-    <t>Fabulous Friday</t>
-  </si>
-  <si>
     <t>Amy Wardian Pratama</t>
   </si>
   <si>
     <t>S3R</t>
   </si>
   <si>
-    <t>S3 Reborn</t>
-  </si>
-  <si>
     <t>Hertina Yusnissa</t>
   </si>
   <si>
@@ -213,21 +253,6 @@
   </si>
   <si>
     <t>I Putu Dyatmika</t>
-  </si>
-  <si>
-    <t>I Nyoman Budiana</t>
-  </si>
-  <si>
-    <t>Ahmad Sukri</t>
-  </si>
-  <si>
-    <t>Taupikurrahman</t>
-  </si>
-  <si>
-    <t>Nurul Islamy</t>
-  </si>
-  <si>
-    <t>Herry Irawan</t>
   </si>
   <si>
     <t>Isna Zuriatina</t>
@@ -464,72 +489,912 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -719,26 +1584,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.25"/>
-    <col customWidth="1" min="3" max="3" width="20.38"/>
-    <col customWidth="1" min="4" max="4" width="21.25"/>
-    <col customWidth="1" min="5" max="5" width="21.5"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="20.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="13.2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,14 +1627,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="13.2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -779,14 +1648,14 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" ht="13.2" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -807,7 +1676,7 @@
         <v>18</v>
       </c>
       <c r="P3" s="3">
-        <v>46063.0</v>
+        <v>46063</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>17</v>
@@ -819,24 +1688,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="13.2" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -847,7 +1716,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="3">
-        <v>46063.0</v>
+        <v>46063</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>17</v>
@@ -859,24 +1728,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="15.0" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -887,7 +1756,7 @@
         <v>18</v>
       </c>
       <c r="P5" s="3">
-        <v>46063.0</v>
+        <v>46063</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>17</v>
@@ -899,932 +1768,1027 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="N6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="3">
-        <v>46063.0</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:6">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:6">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D6">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2">
       <formula1>Sheet2!$B$2:$B1000</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.5"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>340012842</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
+        <v>340016137</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>340016544</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>340015139</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C6" s="1">
+        <v>340017018</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1">
+        <v>340014303</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1">
+        <v>340014444</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1">
-        <v>3.40012842E8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.40016137E8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C9" s="1">
+        <v>340017056</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.40016544E8</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C10" s="1">
+        <v>340013473</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.40015139E8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="C11" s="1">
+        <v>340019265</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.40017018E8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.40014303E8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.40014444E8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.40017056E8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.40013473E8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3.40019265E8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C12" s="1">
-        <v>3.40017065E8</v>
+        <v>340017065</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>3.40050195E8</v>
+        <v>340050195</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:4">
       <c r="C14" s="1">
-        <v>3.40016051E8</v>
+        <v>340016051</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:4">
       <c r="C15" s="1">
-        <v>3.40017401E8</v>
+        <v>340017401</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:4">
       <c r="C16" s="1">
-        <v>3.40019267E8</v>
+        <v>340019267</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:4">
       <c r="C17" s="1">
-        <v>3.40016866E8</v>
+        <v>340016866</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:4">
       <c r="C18" s="1">
-        <v>3.40055933E8</v>
+        <v>340055933</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:4">
       <c r="C19" s="1">
-        <v>3.40057173E8</v>
+        <v>340057173</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:4">
       <c r="C20" s="1">
-        <v>3.40017711E8</v>
+        <v>340017711</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:4">
       <c r="C21" s="1">
-        <v>3.40053294E8</v>
+        <v>340053294</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:4">
       <c r="C22" s="1">
-        <v>3.40020172E8</v>
+        <v>340020172</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:4">
       <c r="C23" s="1">
-        <v>3.40054217E8</v>
+        <v>340054217</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:4">
       <c r="C24" s="1">
-        <v>3.40053292E8</v>
+        <v>340053292</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:4">
       <c r="C25" s="1">
-        <v>3.40054218E8</v>
+        <v>340054218</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:4">
       <c r="C26" s="1">
-        <v>3.40050125E8</v>
+        <v>340050125</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:4">
       <c r="C27" s="1">
-        <v>3.40014027E8</v>
+        <v>340014027</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:4">
       <c r="C28" s="1">
-        <v>3.40050272E8</v>
+        <v>340050272</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:4">
       <c r="C29" s="1">
-        <v>3.40016161E8</v>
+        <v>340016161</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:4">
       <c r="C30" s="1">
-        <v>3.40012203E8</v>
+        <v>340012203</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:4">
       <c r="C31" s="1">
-        <v>3.40019263E8</v>
+        <v>340019263</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:4">
       <c r="C32" s="1">
-        <v>3.40020448E8</v>
+        <v>340020448</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:4">
       <c r="C33" s="1">
-        <v>3.40017714E8</v>
+        <v>340017714</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:4">
       <c r="C34" s="1">
-        <v>3.40016404E8</v>
+        <v>340016404</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:4">
       <c r="C35" s="1">
-        <v>3.40055838E8</v>
+        <v>340055838</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:4">
       <c r="C36" s="1">
-        <v>3.40056543E8</v>
+        <v>340056543</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:4">
       <c r="C37" s="1">
-        <v>3.40052171E8</v>
+        <v>340052171</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:4">
       <c r="C38" s="1">
-        <v>3.40055731E8</v>
+        <v>340055731</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:4">
       <c r="C39" s="1">
-        <v>3.40055183E8</v>
+        <v>340055183</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:4">
       <c r="C40" s="1">
-        <v>3.40018186E8</v>
+        <v>340018186</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:4">
       <c r="C41" s="1">
-        <v>3.40057313E8</v>
+        <v>340057313</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:4">
       <c r="C42" s="1">
-        <v>3.40058624E8</v>
+        <v>340058624</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:4">
       <c r="C43" s="1">
-        <v>3.40056747E8</v>
+        <v>340056747</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:4">
       <c r="C44" s="1">
-        <v>3.40057726E8</v>
+        <v>340057726</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:4">
       <c r="C45" s="1">
-        <v>3.40012575E8</v>
+        <v>340012575</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:4">
       <c r="C46" s="1">
-        <v>3.40057928E8</v>
+        <v>340057928</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:4">
       <c r="C47" s="1">
-        <v>3.40017228E8</v>
+        <v>340017228</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:4">
       <c r="C48" s="1">
-        <v>3.40057608E8</v>
+        <v>340057608</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:4">
       <c r="C49" s="1">
-        <v>3.40058765E8</v>
+        <v>340058765</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:4">
       <c r="C50" s="1">
-        <v>3.40058817E8</v>
+        <v>340058817</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:4">
       <c r="C51" s="1">
-        <v>3.4005517E8</v>
+        <v>340055170</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:4">
       <c r="C52" s="1">
-        <v>3.40020473E8</v>
+        <v>340020473</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:4">
       <c r="C53" s="1">
-        <v>3.40058948E8</v>
+        <v>340058948</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:4">
       <c r="C54" s="1">
-        <v>3.40057494E8</v>
+        <v>340057494</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:4">
       <c r="C55" s="1">
-        <v>3.40058106E8</v>
+        <v>340058106</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:4">
       <c r="C56" s="1">
-        <v>3.40057584E8</v>
+        <v>340057584</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:4">
       <c r="C57" s="1">
-        <v>3.40058202E8</v>
+        <v>340058202</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:4">
       <c r="C58" s="1">
-        <v>3.4005922E8</v>
+        <v>340059220</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:4">
       <c r="C59" s="1">
-        <v>3.40057725E8</v>
+        <v>340057725</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:4">
       <c r="C60" s="1">
-        <v>3.40059471E8</v>
+        <v>340059471</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:4">
       <c r="C61" s="1">
-        <v>3.40018187E8</v>
+        <v>340018187</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:4">
       <c r="C62" s="1">
-        <v>3.400203E8</v>
+        <v>340020300</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:4">
       <c r="C63" s="1">
-        <v>3.40055178E8</v>
+        <v>340055178</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:4">
       <c r="C64" s="1">
-        <v>3.40061384E8</v>
+        <v>340061384</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:4">
       <c r="C65" s="1">
-        <v>3.40063283E8</v>
+        <v>340063283</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customHeight="1" spans="3:4">
       <c r="C66" s="1">
-        <v>3.40059722E8</v>
+        <v>340059722</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:4">
       <c r="C67" s="1">
-        <v>3.40060691E8</v>
+        <v>340060691</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:4">
       <c r="C68" s="1">
-        <v>3.40060467E8</v>
+        <v>340060467</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:4">
       <c r="C69" s="1">
-        <v>3.40017718E8</v>
+        <v>340017718</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:4">
       <c r="C70" s="1">
-        <v>3.40059373E8</v>
+        <v>340059373</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:4">
       <c r="C71" s="1">
-        <v>3.40062283E8</v>
+        <v>340062283</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:4">
       <c r="C72" s="1">
-        <v>3.4001968E8</v>
+        <v>340019680</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:4">
       <c r="C73" s="1">
-        <v>3.4006287E8</v>
+        <v>340062870</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:4">
       <c r="C74" s="1">
-        <v>3.40061096E8</v>
+        <v>340061096</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:4">
       <c r="C75" s="1">
-        <v>3.40056628E8</v>
+        <v>340056628</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:4">
       <c r="C76" s="1">
-        <v>3.40019393E8</v>
+        <v>340019393</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:4">
       <c r="C77" s="1">
-        <v>3.40055753E8</v>
+        <v>340055753</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:4">
       <c r="C78" s="1">
-        <v>3.40015173E8</v>
+        <v>340015173</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:4">
       <c r="C79" s="1">
-        <v>3.40020298E8</v>
+        <v>340020298</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:4">
       <c r="C80" s="1">
-        <v>3.40059598E8</v>
+        <v>340059598</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:4">
       <c r="C81" s="1">
-        <v>3.40055846E8</v>
+        <v>340055846</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:4">
       <c r="C82" s="1">
-        <v>3.40050061E8</v>
+        <v>340050061</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:4">
       <c r="C83" s="1">
-        <v>3.40063932E8</v>
+        <v>340063932</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:4">
       <c r="C84" s="1">
-        <v>3.40063875E8</v>
+        <v>340063875</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:4">
       <c r="C85" s="1">
-        <v>3.40063705E8</v>
+        <v>340063705</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:4">
       <c r="C86" s="1">
-        <v>3.40063677E8</v>
+        <v>340063677</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:4">
       <c r="C87" s="1">
-        <v>3.4005701E8</v>
+        <v>340057010</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:4">
       <c r="C88" s="1">
-        <v>3.40064443E8</v>
+        <v>340064443</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:4">
       <c r="C89" s="1">
-        <v>3.40064775E8</v>
+        <v>340064775</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:4">
       <c r="C90" s="1">
-        <v>3.40064938E8</v>
+        <v>340064938</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:4">
       <c r="C91" s="1">
-        <v>3.40065038E8</v>
+        <v>340065038</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:4">
       <c r="C92" s="1">
-        <v>3.40065052E8</v>
+        <v>340065052</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:4">
       <c r="C93" s="1">
-        <v>3.40065239E8</v>
+        <v>340065239</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:4">
       <c r="C94" s="1">
-        <v>3.40065254E8</v>
+        <v>340065254</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:4">
       <c r="C95" s="1">
-        <v>3.40065276E8</v>
+        <v>340065276</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:4">
       <c r="C96" s="1">
-        <v>3.40065584E8</v>
+        <v>340065584</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:4">
       <c r="C97" s="1">
-        <v>3.400656E8</v>
+        <v>340065600</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:4">
       <c r="C98" s="1">
-        <v>3.40066021E8</v>
+        <v>340066021</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>